--- a/data/trans_dic/P04D$individual-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2310578436772305</v>
+        <v>0.2309518656918842</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1635601134546964</v>
+        <v>0.163654660347409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05471544515004134</v>
+        <v>0.05502367265669611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2029840914675133</v>
+        <v>0.2003831636038952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1798028586228827</v>
+        <v>0.1786391484127805</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1036945781800636</v>
+        <v>0.1023391198035926</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2215374254543881</v>
+        <v>0.2253494333042967</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1784674053062436</v>
+        <v>0.1786581051987398</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08643990665996251</v>
+        <v>0.08395522007137977</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2849253595321153</v>
+        <v>0.2853572053205327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2104895618504716</v>
+        <v>0.2099642683179144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1046224380382745</v>
+        <v>0.1017735708907215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2531221936892213</v>
+        <v>0.2482211936388149</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2272724665510817</v>
+        <v>0.2265180063277409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1489883923479196</v>
+        <v>0.1488872034866898</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.260699107993247</v>
+        <v>0.2635464752566354</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2124479688286174</v>
+        <v>0.213293150587171</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1218927814991901</v>
+        <v>0.1194029171615141</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2287606781148435</v>
+        <v>0.2292860794310352</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2579637668913663</v>
+        <v>0.257540724150101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0944873141497745</v>
+        <v>0.09454047813691265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2243739963835511</v>
+        <v>0.2248097230838248</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2537185253360598</v>
+        <v>0.2544210811630763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09442657848340756</v>
+        <v>0.09489457848586054</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2344687869577228</v>
+        <v>0.234854898832268</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2652610137879453</v>
+        <v>0.2626467809129649</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1020109287720489</v>
+        <v>0.1000250085027907</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.283362949615469</v>
+        <v>0.2862551211371241</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3173146740993935</v>
+        <v>0.3180592085011262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1460541325347096</v>
+        <v>0.1474137079657855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2779479931674853</v>
+        <v>0.2807262453100104</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3106412678555951</v>
+        <v>0.3113455741994635</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1287992517354317</v>
+        <v>0.1287884046903479</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.273671988127414</v>
+        <v>0.2740702784956002</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3066142680192877</v>
+        <v>0.3046228584450378</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1301802003385207</v>
+        <v>0.1290708902503162</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2653544909141783</v>
+        <v>0.2665160905848664</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.344130699820384</v>
+        <v>0.3434136877018052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1661495693743699</v>
+        <v>0.1642493153114835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2672318656554966</v>
+        <v>0.2672724480689626</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.384694238234399</v>
+        <v>0.3925991196757627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1690132640711406</v>
+        <v>0.1684307844932832</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2757891352440301</v>
+        <v>0.2755834049024746</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3784945613850035</v>
+        <v>0.3768224532198434</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.174189739775678</v>
+        <v>0.1732795556911375</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3302157160363755</v>
+        <v>0.3301037336519005</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4168031256354172</v>
+        <v>0.412094089301163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2183376734843681</v>
+        <v>0.2171695271812703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3291839660062194</v>
+        <v>0.3302982687803842</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4625861291690413</v>
+        <v>0.4641998921807254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2133240067423511</v>
+        <v>0.2115428814551115</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3217931732285549</v>
+        <v>0.3243048342894855</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4282004879559059</v>
+        <v>0.4277589906069744</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2076400929599422</v>
+        <v>0.2070403664086455</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4109054775892464</v>
+        <v>0.4053318399489169</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.307179877736849</v>
+        <v>0.3058433073093175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2409844060990787</v>
+        <v>0.2404508491903718</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4168655066487665</v>
+        <v>0.4221711359200097</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3980918651375718</v>
+        <v>0.3998159419722081</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2119084238779808</v>
+        <v>0.2134941748709413</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4259226963421359</v>
+        <v>0.4260880647136531</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3641737944915268</v>
+        <v>0.3659043805496365</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2352081863767887</v>
+        <v>0.2352109393476713</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5037044942600406</v>
+        <v>0.5009583715598183</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3972436918412572</v>
+        <v>0.3891291744390248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3069921557096656</v>
+        <v>0.3067828269342566</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5142502344453445</v>
+        <v>0.5204747822610918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.497683058321787</v>
+        <v>0.4922935229596533</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2657937297602856</v>
+        <v>0.2669833745062793</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4959868772456727</v>
+        <v>0.4946381536258406</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4287724108988317</v>
+        <v>0.4295638401587865</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2781509824360244</v>
+        <v>0.279802884566715</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2818778831795438</v>
+        <v>0.2813244510725544</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2691573985930917</v>
+        <v>0.2709059232208409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1628431028725045</v>
+        <v>0.1627189777601765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2677125410193461</v>
+        <v>0.2683656084730531</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2919666119768575</v>
+        <v>0.2927281566870429</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1548878405291819</v>
+        <v>0.1547246986315277</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2779040758749346</v>
+        <v>0.2787781437250054</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2861249212802462</v>
+        <v>0.28568736495908</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1633900394196369</v>
+        <v>0.1622981220249794</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3133325959029263</v>
+        <v>0.3129515880700533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3007410588888472</v>
+        <v>0.30299287411523</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1925090901797555</v>
+        <v>0.1918215430978071</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2984878842321755</v>
+        <v>0.2998075429563976</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3247742841957527</v>
+        <v>0.3242343557532542</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1784073928372764</v>
+        <v>0.1780814822659544</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3011804112826864</v>
+        <v>0.3015008414641394</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3086828509436397</v>
+        <v>0.3086434998718496</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.180896493619221</v>
+        <v>0.1803588482355636</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>240228</v>
+        <v>240117</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>184495</v>
+        <v>184602</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27178</v>
+        <v>27331</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>226474</v>
+        <v>223572</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>226473</v>
+        <v>225007</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64536</v>
+        <v>63692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>477503</v>
+        <v>485720</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>426101</v>
+        <v>426557</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96733</v>
+        <v>93952</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>296233</v>
+        <v>296682</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237432</v>
+        <v>236839</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51967</v>
+        <v>50552</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>282414</v>
+        <v>276946</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>286264</v>
+        <v>285313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>92725</v>
+        <v>92662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>561913</v>
+        <v>568050</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>507232</v>
+        <v>509250</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>136407</v>
+        <v>133621</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>223086</v>
+        <v>223598</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>234444</v>
+        <v>234059</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>90721</v>
+        <v>90772</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>245524</v>
+        <v>246001</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>255361</v>
+        <v>256068</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>105304</v>
+        <v>105826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>485223</v>
+        <v>486022</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>508054</v>
+        <v>503047</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>211707</v>
+        <v>207585</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>276333</v>
+        <v>279154</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>288384</v>
+        <v>289060</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>140232</v>
+        <v>141537</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>304148</v>
+        <v>307188</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>312653</v>
+        <v>313362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143636</v>
+        <v>143624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>566352</v>
+        <v>567176</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>587258</v>
+        <v>583444</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>270167</v>
+        <v>267865</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>234869</v>
+        <v>235897</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>283481</v>
+        <v>282890</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>173673</v>
+        <v>171687</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>234041</v>
+        <v>234076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>296622</v>
+        <v>302717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>176475</v>
+        <v>175867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>485640</v>
+        <v>485278</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>603630</v>
+        <v>600963</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>363957</v>
+        <v>362056</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>292279</v>
+        <v>292180</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>343345</v>
+        <v>339466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>228224</v>
+        <v>227003</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>288298</v>
+        <v>289274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>356681</v>
+        <v>357926</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>222742</v>
+        <v>220883</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>566649</v>
+        <v>571072</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>682902</v>
+        <v>682198</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>433850</v>
+        <v>432597</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>206298</v>
+        <v>203500</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>155648</v>
+        <v>154971</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>234186</v>
+        <v>233667</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>188730</v>
+        <v>191132</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>194945</v>
+        <v>195789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>192381</v>
+        <v>193820</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>406668</v>
+        <v>406826</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>362862</v>
+        <v>364586</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>442106</v>
+        <v>442111</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>252888</v>
+        <v>251510</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>201284</v>
+        <v>197172</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>298332</v>
+        <v>298128</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>232820</v>
+        <v>235638</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>243714</v>
+        <v>241075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>241300</v>
+        <v>242380</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>473565</v>
+        <v>472277</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>427228</v>
+        <v>428017</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>522823</v>
+        <v>525928</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>958963</v>
+        <v>957080</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>906329</v>
+        <v>912217</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>565704</v>
+        <v>565272</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>947305</v>
+        <v>949616</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1029706</v>
+        <v>1032391</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>571468</v>
+        <v>570866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1928811</v>
+        <v>1934878</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1972567</v>
+        <v>1969550</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1170441</v>
+        <v>1162619</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1065973</v>
+        <v>1064677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1012680</v>
+        <v>1020262</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>668761</v>
+        <v>666372</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1056204</v>
+        <v>1060873</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1145411</v>
+        <v>1143507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>658244</v>
+        <v>657042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2090362</v>
+        <v>2092586</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2128083</v>
+        <v>2127811</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1295848</v>
+        <v>1291996</v>
       </c>
     </row>
     <row r="24">
